--- a/production_plan_DECISION_SUPPORT.xlsx
+++ b/production_plan_DECISION_SUPPORT.xlsx
@@ -526,7 +526,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1189,7 +1189,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1265,7 +1265,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>W1</t>
+          <t>W2</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1279,13 +1279,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>96.8</v>
+        <v>94</v>
       </c>
       <c r="E2" t="n">
         <v>129.6</v>
       </c>
       <c r="F2" t="n">
-        <v>125.5</v>
+        <v>121.8</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -1295,21 +1295,21 @@
           <t>hours</t>
         </is>
       </c>
-      <c r="I2" s="5" t="inlineStr">
-        <is>
-          <t>High</t>
+      <c r="I2" s="6" t="inlineStr">
+        <is>
+          <t>Medium</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>W2</t>
+          <t>W1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Small Line Casting</t>
+          <t>Big Line Casting</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1318,13 +1318,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>96.09999999999999</v>
+        <v>90</v>
       </c>
       <c r="E3" t="n">
         <v>129.6</v>
       </c>
       <c r="F3" t="n">
-        <v>124.5</v>
+        <v>116.6</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -1334,9 +1334,9 @@
           <t>hours</t>
         </is>
       </c>
-      <c r="I3" s="5" t="inlineStr">
-        <is>
-          <t>High</t>
+      <c r="I3" s="6" t="inlineStr">
+        <is>
+          <t>Medium</t>
         </is>
       </c>
     </row>
@@ -1357,13 +1357,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>90.90000000000001</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="E4" t="n">
         <v>129.6</v>
       </c>
       <c r="F4" t="n">
-        <v>117.8</v>
+        <v>114.9</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -1374,6 +1374,45 @@
         </is>
       </c>
       <c r="I4" s="6" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>W3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Big Line Casting</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Casting</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="E5" t="n">
+        <v>129.6</v>
+      </c>
+      <c r="F5" t="n">
+        <v>113.3</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>hours</t>
+        </is>
+      </c>
+      <c r="I5" s="6" t="inlineStr">
         <is>
           <t>Medium</t>
         </is>
@@ -16199,7 +16238,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>85.40000000000001</v>
+        <v>84.5</v>
       </c>
       <c r="C2" t="n">
         <v>2</v>
@@ -16217,7 +16256,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>84.8</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -16235,14 +16274,14 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>77.90000000000001</v>
+        <v>81.8</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>OK</t>
+        <v>1</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Tight</t>
         </is>
       </c>
     </row>
@@ -16253,7 +16292,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76.2</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -16271,7 +16310,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>58.3</v>
+        <v>72.7</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -16557,9 +16596,9 @@
     <col width="12" customWidth="1" min="1" max="1"/>
     <col width="12" customWidth="1" min="2" max="2"/>
     <col width="11" customWidth="1" min="3" max="3"/>
-    <col width="4" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="5" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="6" customWidth="1" min="9" max="9"/>
@@ -16686,27 +16725,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4 (TIGHT)</t>
+          <t>13 (TIGHT)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>8 (TIGHT)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>16 (TIGHT)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>111</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -16788,27 +16827,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>149</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>88</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>76</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>17</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>28</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -16890,27 +16929,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>69</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>70</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>48</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>61</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>87</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -16992,7 +17031,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>70</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -17002,17 +17041,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>56</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -17094,27 +17133,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>49</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>38</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>52</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -17196,22 +17235,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -17298,27 +17337,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>117</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>59</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>70</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>116</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>111</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -17400,12 +17439,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>90</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>59</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -17415,12 +17454,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>105</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>127</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -17502,27 +17541,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>63</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>51</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>26</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>104</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -17604,27 +17643,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>12 (TIGHT)</t>
+          <t>15 (TIGHT)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>5 (TIGHT)</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>93</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>81</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
